--- a/Gesture_Controlled_sevenseg/tables/connections.xlsx
+++ b/Gesture_Controlled_sevenseg/tables/connections.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">VAMAN</t>
+    <t xml:space="preserve">VAMAN-ESP</t>
   </si>
   <si>
     <t xml:space="preserve">Display</t>
@@ -71,6 +71,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,13 +227,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="10.45"/>
   </cols>
@@ -292,7 +293,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
@@ -318,7 +319,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
@@ -344,7 +345,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
